--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,46 +575,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.004670536518096924</v>
+        <v>0.004764127731323242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002537870407104492</v>
+        <v>0.002569770812988281</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00800694227218628</v>
+        <v>0.007995283603668213</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00542140007019043</v>
+        <v>0.005387687683105468</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006875646114349365</v>
+        <v>0.006900763511657715</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006532561779022217</v>
+        <v>0.006561434268951416</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00177689790725708</v>
+        <v>0.001794815063476562</v>
       </c>
       <c r="M2" t="n">
-        <v>19822182.4</v>
+        <v>19919462.4</v>
       </c>
       <c r="N2" t="n">
-        <v>19822182.4</v>
+        <v>19919462.4</v>
       </c>
       <c r="O2" t="n">
-        <v>19822182.4</v>
+        <v>19919462.4</v>
       </c>
       <c r="P2" t="n">
-        <v>19865190.4</v>
+        <v>19930316.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>19865190.4</v>
+        <v>19964518.4</v>
       </c>
       <c r="R2" t="n">
-        <v>19871744</v>
+        <v>19971276.8</v>
       </c>
       <c r="S2" t="n">
-        <v>19871744</v>
+        <v>19971276.8</v>
       </c>
       <c r="T2" t="n">
         <v>72</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -654,46 +654,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.004767537117004395</v>
+        <v>0.004759097099304199</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002546751499176025</v>
+        <v>0.002622067928314209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00789647102355957</v>
+        <v>0.008213806152343749</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005289304256439209</v>
+        <v>0.005519819259643555</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006924045085906982</v>
+        <v>0.007089757919311523</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006420385837554931</v>
+        <v>0.00658419132232666</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00180058479309082</v>
+        <v>0.0018402099609375</v>
       </c>
       <c r="M3" t="n">
-        <v>20100300.8</v>
+        <v>20158464</v>
       </c>
       <c r="N3" t="n">
-        <v>20100300.8</v>
+        <v>20158464</v>
       </c>
       <c r="O3" t="n">
-        <v>20100300.8</v>
+        <v>20158464</v>
       </c>
       <c r="P3" t="n">
-        <v>20105830.4</v>
+        <v>20158464</v>
       </c>
       <c r="Q3" t="n">
-        <v>20105830.4</v>
+        <v>20158464</v>
       </c>
       <c r="R3" t="n">
-        <v>20110745.6</v>
+        <v>20164608</v>
       </c>
       <c r="S3" t="n">
-        <v>20110745.6</v>
+        <v>20164608</v>
       </c>
       <c r="T3" t="n">
         <v>72</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -733,46 +733,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.004972100257873535</v>
+        <v>0.004808604717254639</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002635490894317627</v>
+        <v>0.002618157863616943</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008174169063568115</v>
+        <v>0.008196842670440675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005546903610229493</v>
+        <v>0.005591940879821777</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007072412967681884</v>
+        <v>0.007220160961151123</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006586563587188721</v>
+        <v>0.006634330749511719</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001832008361816406</v>
+        <v>0.001830339431762695</v>
       </c>
       <c r="M4" t="n">
-        <v>20258816</v>
+        <v>20327424</v>
       </c>
       <c r="N4" t="n">
-        <v>20258816</v>
+        <v>20327424</v>
       </c>
       <c r="O4" t="n">
-        <v>20258816</v>
+        <v>20327424</v>
       </c>
       <c r="P4" t="n">
-        <v>20266188.8</v>
+        <v>20327424</v>
       </c>
       <c r="Q4" t="n">
-        <v>20266188.8</v>
+        <v>20327424</v>
       </c>
       <c r="R4" t="n">
-        <v>20266188.8</v>
+        <v>20334182.4</v>
       </c>
       <c r="S4" t="n">
-        <v>20266188.8</v>
+        <v>20334182.4</v>
       </c>
       <c r="T4" t="n">
         <v>72</v>
@@ -803,7 +803,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -812,46 +812,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.004737091064453125</v>
+        <v>0.00479201078414917</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00257643461227417</v>
+        <v>0.002627909183502197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008142006397247315</v>
+        <v>0.008284986019134521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005471289157867432</v>
+        <v>0.005587482452392578</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007165777683258057</v>
+        <v>0.007126772403717041</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006681370735168457</v>
+        <v>0.006628692150115967</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001828265190124512</v>
+        <v>0.001855731010437012</v>
       </c>
       <c r="M5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="N5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="O5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="P5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="Q5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="R5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="S5" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="T5" t="n">
         <v>72</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -891,46 +891,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.005606782436370849</v>
+        <v>0.0048423171043396</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003066384792327881</v>
+        <v>0.002634799480438232</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009412527084350586</v>
+        <v>0.008267498016357422</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006237447261810303</v>
+        <v>0.005577778816223145</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00813586711883545</v>
+        <v>0.007271325588226319</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007625365257263183</v>
+        <v>0.006791257858276367</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002135372161865234</v>
+        <v>0.001968777179718017</v>
       </c>
       <c r="M6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="N6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="O6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="P6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="Q6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="R6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="S6" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="T6" t="n">
         <v>72</v>
@@ -961,7 +961,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0/20</t>
+          <t>20/20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -970,46 +970,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.005080568790435791</v>
+        <v>0.004638457298278808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002728688716888428</v>
+        <v>0.002533578872680664</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008501124382019044</v>
+        <v>0.007923781871795654</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005726408958435058</v>
+        <v>0.005420684814453125</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007377505302429199</v>
+        <v>0.00710444450378418</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006927430629730225</v>
+        <v>0.006375396251678466</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00195540189743042</v>
+        <v>0.001760733127593994</v>
       </c>
       <c r="M7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="N7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="O7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="P7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="Q7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="R7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="S7" t="n">
-        <v>20332544</v>
+        <v>20361216</v>
       </c>
       <c r="T7" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,105 +446,110 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>roundCount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>isSystemValid</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>isSchemeCorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>isTracingVerified</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Setup (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>EKGen (s)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DKGen (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>TKGen (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Enc (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dec (s)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TVerify (s)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Setup (B)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>EKGen (B)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>DKGen (B)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TKGen (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Enc (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Dec (B)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>TVerify (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EK (B)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DK (B)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>TK' (B)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -559,73 +564,70 @@
       <c r="B2" t="n">
         <v>128</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004764127731323242</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002569770812988281</v>
+        <v>0.004461658</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007995283603668213</v>
+        <v>0.002417481</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005387687683105468</v>
+        <v>0.007600808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006900763511657715</v>
+        <v>0.005132067</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006561434268951416</v>
+        <v>0.006606185</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001794815063476562</v>
+        <v>0.006157041</v>
       </c>
       <c r="M2" t="n">
-        <v>19919462.4</v>
+        <v>0.001718628</v>
       </c>
       <c r="N2" t="n">
-        <v>19919462.4</v>
+        <v>20169932.8</v>
       </c>
       <c r="O2" t="n">
-        <v>19919462.4</v>
+        <v>20169932.8</v>
       </c>
       <c r="P2" t="n">
-        <v>19930316.8</v>
+        <v>20212736</v>
       </c>
       <c r="Q2" t="n">
-        <v>19964518.4</v>
+        <v>20214988.8</v>
       </c>
       <c r="R2" t="n">
-        <v>19971276.8</v>
+        <v>20214988.8</v>
       </c>
       <c r="S2" t="n">
-        <v>19971276.8</v>
+        <v>20225843.2</v>
       </c>
       <c r="T2" t="n">
-        <v>72</v>
+        <v>20225843.2</v>
       </c>
       <c r="U2" t="n">
         <v>72</v>
       </c>
       <c r="V2" t="n">
+        <v>72</v>
+      </c>
+      <c r="W2" t="n">
         <v>64</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -638,73 +640,70 @@
       <c r="B3" t="n">
         <v>160</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004759097099304199</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002622067928314209</v>
+        <v>0.004653895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008213806152343749</v>
+        <v>0.00248183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005519819259643555</v>
+        <v>0.007746279</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007089757919311523</v>
+        <v>0.005259323</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00658419132232666</v>
+        <v>0.006773937</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0018402099609375</v>
+        <v>0.006402588</v>
       </c>
       <c r="M3" t="n">
-        <v>20158464</v>
+        <v>0.001792514</v>
       </c>
       <c r="N3" t="n">
-        <v>20158464</v>
+        <v>20523417.6</v>
       </c>
       <c r="O3" t="n">
-        <v>20158464</v>
+        <v>20523417.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20158464</v>
+        <v>20523417.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>20158464</v>
+        <v>20523417.6</v>
       </c>
       <c r="R3" t="n">
-        <v>20164608</v>
+        <v>20523417.6</v>
       </c>
       <c r="S3" t="n">
-        <v>20164608</v>
+        <v>20530790.4</v>
       </c>
       <c r="T3" t="n">
-        <v>72</v>
+        <v>20530790.4</v>
       </c>
       <c r="U3" t="n">
         <v>72</v>
       </c>
       <c r="V3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W3" t="n">
         <v>64</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -717,73 +716,70 @@
       <c r="B4" t="n">
         <v>224</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004808604717254639</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002618157863616943</v>
+        <v>0.004601431</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008196842670440675</v>
+        <v>0.002492201</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005591940879821777</v>
+        <v>0.007830369</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007220160961151123</v>
+        <v>0.005375385</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006634330749511719</v>
+        <v>0.006824362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001830339431762695</v>
+        <v>0.006458855</v>
       </c>
       <c r="M4" t="n">
-        <v>20327424</v>
+        <v>0.001774859</v>
       </c>
       <c r="N4" t="n">
-        <v>20327424</v>
+        <v>20706304</v>
       </c>
       <c r="O4" t="n">
-        <v>20327424</v>
+        <v>20706304</v>
       </c>
       <c r="P4" t="n">
-        <v>20327424</v>
+        <v>20706304</v>
       </c>
       <c r="Q4" t="n">
-        <v>20327424</v>
+        <v>20706304</v>
       </c>
       <c r="R4" t="n">
-        <v>20334182.4</v>
+        <v>20706304</v>
       </c>
       <c r="S4" t="n">
-        <v>20334182.4</v>
+        <v>20713472</v>
       </c>
       <c r="T4" t="n">
-        <v>72</v>
+        <v>20713472</v>
       </c>
       <c r="U4" t="n">
         <v>72</v>
       </c>
       <c r="V4" t="n">
+        <v>72</v>
+      </c>
+      <c r="W4" t="n">
         <v>64</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -796,73 +792,70 @@
       <c r="B5" t="n">
         <v>256</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00479201078414917</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002627909183502197</v>
+        <v>0.004613876</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008284986019134521</v>
+        <v>0.002509332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005587482452392578</v>
+        <v>0.007759428</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007126772403717041</v>
+        <v>0.005217254</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006628692150115967</v>
+        <v>0.006763983</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001855731010437012</v>
+        <v>0.00637207</v>
       </c>
       <c r="M5" t="n">
-        <v>20361216</v>
+        <v>0.001788247</v>
       </c>
       <c r="N5" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="O5" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="P5" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="Q5" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="R5" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="S5" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="T5" t="n">
-        <v>72</v>
+        <v>20799488</v>
       </c>
       <c r="U5" t="n">
         <v>72</v>
       </c>
       <c r="V5" t="n">
+        <v>72</v>
+      </c>
+      <c r="W5" t="n">
         <v>64</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -875,73 +868,70 @@
       <c r="B6" t="n">
         <v>384</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0048423171043396</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002634799480438232</v>
+        <v>0.004606616</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008267498016357422</v>
+        <v>0.002529311</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005577778816223145</v>
+        <v>0.007869065</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007271325588226319</v>
+        <v>0.005310798</v>
       </c>
       <c r="K6" t="n">
-        <v>0.006791257858276367</v>
+        <v>0.00686028</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001968777179718017</v>
+        <v>0.006374991</v>
       </c>
       <c r="M6" t="n">
-        <v>20361216</v>
+        <v>0.001769674</v>
       </c>
       <c r="N6" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="O6" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="P6" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="Q6" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="R6" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="S6" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="T6" t="n">
-        <v>72</v>
+        <v>20799488</v>
       </c>
       <c r="U6" t="n">
         <v>72</v>
       </c>
       <c r="V6" t="n">
+        <v>72</v>
+      </c>
+      <c r="W6" t="n">
         <v>64</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -954,73 +944,70 @@
       <c r="B7" t="n">
         <v>512</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004638457298278808</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002533578872680664</v>
+        <v>0.004705107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007923781871795654</v>
+        <v>0.002535272</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005420684814453125</v>
+        <v>0.00789609</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00710444450378418</v>
+        <v>0.005319202</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006375396251678466</v>
+        <v>0.006872356</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001760733127593994</v>
+        <v>0.006391966</v>
       </c>
       <c r="M7" t="n">
-        <v>20361216</v>
+        <v>0.001793897</v>
       </c>
       <c r="N7" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="O7" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="P7" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="Q7" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="R7" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="S7" t="n">
-        <v>20361216</v>
+        <v>20799488</v>
       </c>
       <c r="T7" t="n">
-        <v>72</v>
+        <v>20799488</v>
       </c>
       <c r="U7" t="n">
         <v>72</v>
       </c>
       <c r="V7" t="n">
+        <v>72</v>
+      </c>
+      <c r="W7" t="n">
         <v>64</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -577,46 +577,46 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004461658</v>
+        <v>0.004940474</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002417481</v>
+        <v>0.002685547</v>
       </c>
       <c r="I2" t="n">
-        <v>0.007600808</v>
+        <v>0.008376420000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005132067</v>
+        <v>0.005669093</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006606185</v>
+        <v>0.007249999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006157041</v>
+        <v>0.006855166</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001718628</v>
+        <v>0.001916897</v>
       </c>
       <c r="N2" t="n">
-        <v>20169932.8</v>
+        <v>20391936</v>
       </c>
       <c r="O2" t="n">
-        <v>20169932.8</v>
+        <v>20391936</v>
       </c>
       <c r="P2" t="n">
-        <v>20212736</v>
+        <v>20391936</v>
       </c>
       <c r="Q2" t="n">
-        <v>20214988.8</v>
+        <v>20440064</v>
       </c>
       <c r="R2" t="n">
-        <v>20214988.8</v>
+        <v>20440473.6</v>
       </c>
       <c r="S2" t="n">
-        <v>20225843.2</v>
+        <v>20446412.8</v>
       </c>
       <c r="T2" t="n">
-        <v>20225843.2</v>
+        <v>20446412.8</v>
       </c>
       <c r="U2" t="n">
         <v>72</v>
@@ -653,46 +653,46 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004653895</v>
+        <v>0.004962981</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00248183</v>
+        <v>0.002648079</v>
       </c>
       <c r="I3" t="n">
-        <v>0.007746279</v>
+        <v>0.008323669000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005259323</v>
+        <v>0.005661607</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006773937</v>
+        <v>0.007357013</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006402588</v>
+        <v>0.006932962</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001792514</v>
+        <v>0.002013433</v>
       </c>
       <c r="N3" t="n">
-        <v>20523417.6</v>
+        <v>20643225.6</v>
       </c>
       <c r="O3" t="n">
-        <v>20523417.6</v>
+        <v>20643225.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20523417.6</v>
+        <v>20643225.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>20523417.6</v>
+        <v>20647731.2</v>
       </c>
       <c r="R3" t="n">
-        <v>20523417.6</v>
+        <v>20647731.2</v>
       </c>
       <c r="S3" t="n">
-        <v>20530790.4</v>
+        <v>20653260.8</v>
       </c>
       <c r="T3" t="n">
-        <v>20530790.4</v>
+        <v>20653260.8</v>
       </c>
       <c r="U3" t="n">
         <v>72</v>
@@ -729,46 +729,46 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004601431</v>
+        <v>0.005267477</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002492201</v>
+        <v>0.002837694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007830369</v>
+        <v>0.008866870000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005375385</v>
+        <v>0.00596416</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006824362</v>
+        <v>0.007679033</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006458855</v>
+        <v>0.0071805</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001774859</v>
+        <v>0.002056837</v>
       </c>
       <c r="N4" t="n">
-        <v>20706304</v>
+        <v>20823244.8</v>
       </c>
       <c r="O4" t="n">
-        <v>20706304</v>
+        <v>20823244.8</v>
       </c>
       <c r="P4" t="n">
-        <v>20706304</v>
+        <v>20823244.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>20706304</v>
+        <v>20828979.2</v>
       </c>
       <c r="R4" t="n">
-        <v>20706304</v>
+        <v>20828979.2</v>
       </c>
       <c r="S4" t="n">
-        <v>20713472</v>
+        <v>20828979.2</v>
       </c>
       <c r="T4" t="n">
-        <v>20713472</v>
+        <v>20828979.2</v>
       </c>
       <c r="U4" t="n">
         <v>72</v>
@@ -805,46 +805,46 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004613876</v>
+        <v>0.005190217</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002509332</v>
+        <v>0.002812004</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007759428</v>
+        <v>0.008778345999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005217254</v>
+        <v>0.005924761</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006763983</v>
+        <v>0.007664597</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00637207</v>
+        <v>0.00711267</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001788247</v>
+        <v>0.002010548</v>
       </c>
       <c r="N5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="O5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="P5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="Q5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="R5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="S5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="T5" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="U5" t="n">
         <v>72</v>
@@ -881,46 +881,46 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004606616</v>
+        <v>0.004948246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002529311</v>
+        <v>0.002701199</v>
       </c>
       <c r="I6" t="n">
-        <v>0.007869065</v>
+        <v>0.008427191000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005310798</v>
+        <v>0.005602431</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00686028</v>
+        <v>0.007236695</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006374991</v>
+        <v>0.006738615</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001769674</v>
+        <v>0.0019122</v>
       </c>
       <c r="N6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="O6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="P6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="Q6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="R6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="S6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="T6" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="U6" t="n">
         <v>72</v>
@@ -957,46 +957,46 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004705107</v>
+        <v>0.00521965</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002535272</v>
+        <v>0.002790344</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00789609</v>
+        <v>0.008612597</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005319202</v>
+        <v>0.005860615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006872356</v>
+        <v>0.007571828</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006391966</v>
+        <v>0.007112503</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001793897</v>
+        <v>0.001997483</v>
       </c>
       <c r="N7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="O7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="P7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="Q7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="R7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="S7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="T7" t="n">
-        <v>20799488</v>
+        <v>20897792</v>
       </c>
       <c r="U7" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -577,46 +577,46 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004940474</v>
+        <v>0.00508157</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002685547</v>
+        <v>0.00271945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008376420000000001</v>
+        <v>0.008504486</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005669093</v>
+        <v>0.00578022</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007249999</v>
+        <v>0.007416463</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006855166</v>
+        <v>0.00685575</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001916897</v>
+        <v>0.001935649</v>
       </c>
       <c r="N2" t="n">
-        <v>20391936</v>
+        <v>20296908.8</v>
       </c>
       <c r="O2" t="n">
-        <v>20391936</v>
+        <v>20296908.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20391936</v>
+        <v>20296908.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>20440064</v>
+        <v>20336435.2</v>
       </c>
       <c r="R2" t="n">
-        <v>20440473.6</v>
+        <v>20336435.2</v>
       </c>
       <c r="S2" t="n">
-        <v>20446412.8</v>
+        <v>20347904</v>
       </c>
       <c r="T2" t="n">
-        <v>20446412.8</v>
+        <v>20347904</v>
       </c>
       <c r="U2" t="n">
         <v>72</v>
@@ -653,46 +653,46 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004962981</v>
+        <v>0.005073857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002648079</v>
+        <v>0.002751243</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008323669000000001</v>
+        <v>0.008608698999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005661607</v>
+        <v>0.005821383</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007357013</v>
+        <v>0.007471657</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006932962</v>
+        <v>0.007001424</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002013433</v>
+        <v>0.00195142</v>
       </c>
       <c r="N3" t="n">
-        <v>20643225.6</v>
+        <v>20545536</v>
       </c>
       <c r="O3" t="n">
-        <v>20643225.6</v>
+        <v>20545536</v>
       </c>
       <c r="P3" t="n">
-        <v>20643225.6</v>
+        <v>20545536</v>
       </c>
       <c r="Q3" t="n">
-        <v>20647731.2</v>
+        <v>20552704</v>
       </c>
       <c r="R3" t="n">
-        <v>20647731.2</v>
+        <v>20552704</v>
       </c>
       <c r="S3" t="n">
-        <v>20653260.8</v>
+        <v>20552704</v>
       </c>
       <c r="T3" t="n">
-        <v>20653260.8</v>
+        <v>20552704</v>
       </c>
       <c r="U3" t="n">
         <v>72</v>
@@ -729,46 +729,46 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005267477</v>
+        <v>0.005059445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002837694</v>
+        <v>0.002765632</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008866870000000001</v>
+        <v>0.008525062</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00596416</v>
+        <v>0.005759704</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007679033</v>
+        <v>0.007566679</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0071805</v>
+        <v>0.007098782</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002056837</v>
+        <v>0.001983106</v>
       </c>
       <c r="N4" t="n">
-        <v>20823244.8</v>
+        <v>20767129.6</v>
       </c>
       <c r="O4" t="n">
-        <v>20823244.8</v>
+        <v>20767129.6</v>
       </c>
       <c r="P4" t="n">
-        <v>20823244.8</v>
+        <v>20767129.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>20828979.2</v>
+        <v>20774297.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20828979.2</v>
+        <v>20774297.6</v>
       </c>
       <c r="S4" t="n">
-        <v>20828979.2</v>
+        <v>20781056</v>
       </c>
       <c r="T4" t="n">
-        <v>20828979.2</v>
+        <v>20781056</v>
       </c>
       <c r="U4" t="n">
         <v>72</v>
@@ -805,46 +805,46 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005190217</v>
+        <v>0.004916191</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002812004</v>
+        <v>0.002664256</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008778345999999999</v>
+        <v>0.008491825999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005924761</v>
+        <v>0.005673385</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007664597</v>
+        <v>0.007289922</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00711267</v>
+        <v>0.006682456</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002010548</v>
+        <v>0.00186404</v>
       </c>
       <c r="N5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="O5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="P5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="Q5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="R5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="S5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="T5" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="U5" t="n">
         <v>72</v>
@@ -881,46 +881,46 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004948246</v>
+        <v>0.005014694</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002701199</v>
+        <v>0.002748632</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008427191000000001</v>
+        <v>0.008398556999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005602431</v>
+        <v>0.005671966</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007236695</v>
+        <v>0.007154953</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006738615</v>
+        <v>0.006798136</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0019122</v>
+        <v>0.001900876</v>
       </c>
       <c r="N6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="O6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="P6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="Q6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="R6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="S6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="T6" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="U6" t="n">
         <v>72</v>
@@ -957,46 +957,46 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00521965</v>
+        <v>0.005216885</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002790344</v>
+        <v>0.002802527</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008612597</v>
+        <v>0.008578229</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005860615</v>
+        <v>0.005818212</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007571828</v>
+        <v>0.007523835</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007112503</v>
+        <v>0.006964087</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001997483</v>
+        <v>0.001936245</v>
       </c>
       <c r="N7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="O7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="P7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="Q7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="R7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="S7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="T7" t="n">
-        <v>20897792</v>
+        <v>20881408</v>
       </c>
       <c r="U7" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,20 +536,30 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>mpk (B)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>msk (B)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>EK (B)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>DK (B)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>TK' (B)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -577,57 +587,63 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00508157</v>
+        <v>0.005221951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00271945</v>
+        <v>0.002849579</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008504486</v>
+        <v>0.008777368000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00578022</v>
+        <v>0.005923605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007416463</v>
+        <v>-1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00685575</v>
+        <v>0.00720886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001935649</v>
+        <v>0.002020574</v>
       </c>
       <c r="N2" t="n">
-        <v>20296908.8</v>
+        <v>20236492.8</v>
       </c>
       <c r="O2" t="n">
-        <v>20296908.8</v>
+        <v>20236492.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20296908.8</v>
+        <v>20236492.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>20336435.2</v>
+        <v>20275609.6</v>
       </c>
       <c r="R2" t="n">
-        <v>20336435.2</v>
+        <v>20275609.6</v>
       </c>
       <c r="S2" t="n">
-        <v>20347904</v>
+        <v>20287488</v>
       </c>
       <c r="T2" t="n">
-        <v>20347904</v>
+        <v>20287488</v>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V2" t="n">
         <v>72</v>
       </c>
       <c r="W2" t="n">
+        <v>72</v>
+      </c>
+      <c r="X2" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="n">
         <v>64</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -653,57 +669,63 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005073857</v>
+        <v>0.005128241</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002751243</v>
+        <v>0.002784705</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008608698999999999</v>
+        <v>0.008764516999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005821383</v>
+        <v>0.005953491</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007471657</v>
+        <v>0.007823491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007001424</v>
+        <v>0.007266366</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00195142</v>
+        <v>0.002030957</v>
       </c>
       <c r="N3" t="n">
-        <v>20545536</v>
+        <v>20534272</v>
       </c>
       <c r="O3" t="n">
-        <v>20545536</v>
+        <v>20534272</v>
       </c>
       <c r="P3" t="n">
-        <v>20545536</v>
+        <v>20534272</v>
       </c>
       <c r="Q3" t="n">
-        <v>20552704</v>
+        <v>20543488</v>
       </c>
       <c r="R3" t="n">
-        <v>20552704</v>
+        <v>20543488</v>
       </c>
       <c r="S3" t="n">
-        <v>20552704</v>
+        <v>20543488</v>
       </c>
       <c r="T3" t="n">
-        <v>20552704</v>
+        <v>20543488</v>
       </c>
       <c r="U3" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V3" t="n">
         <v>72</v>
       </c>
       <c r="W3" t="n">
+        <v>72</v>
+      </c>
+      <c r="X3" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="n">
         <v>64</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -729,57 +751,63 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005059445</v>
+        <v>0.005274165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002765632</v>
+        <v>0.002855456</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008525062</v>
+        <v>0.008723652</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005759704</v>
+        <v>0.005946338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007566679</v>
+        <v>0.00772351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007098782</v>
+        <v>0.00727129</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001983106</v>
+        <v>0.002043557</v>
       </c>
       <c r="N4" t="n">
-        <v>20767129.6</v>
+        <v>20757094.4</v>
       </c>
       <c r="O4" t="n">
-        <v>20767129.6</v>
+        <v>20757094.4</v>
       </c>
       <c r="P4" t="n">
-        <v>20767129.6</v>
+        <v>20757094.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20774297.6</v>
+        <v>20768358.4</v>
       </c>
       <c r="R4" t="n">
-        <v>20774297.6</v>
+        <v>20768563.2</v>
       </c>
       <c r="S4" t="n">
-        <v>20781056</v>
+        <v>20768563.2</v>
       </c>
       <c r="T4" t="n">
-        <v>20781056</v>
+        <v>20768563.2</v>
       </c>
       <c r="U4" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V4" t="n">
         <v>72</v>
       </c>
       <c r="W4" t="n">
+        <v>72</v>
+      </c>
+      <c r="X4" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="n">
         <v>64</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -805,57 +833,63 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004916191</v>
+        <v>0.005402541</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002664256</v>
+        <v>0.002944338</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008491825999999999</v>
+        <v>0.009249281999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005673385</v>
+        <v>0.006354642</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007289922</v>
+        <v>0.008073854</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006682456</v>
+        <v>0.007542479</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00186404</v>
+        <v>0.002049661</v>
       </c>
       <c r="N5" t="n">
-        <v>20881408</v>
+        <v>20917043.2</v>
       </c>
       <c r="O5" t="n">
-        <v>20881408</v>
+        <v>20917043.2</v>
       </c>
       <c r="P5" t="n">
-        <v>20881408</v>
+        <v>20917043.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>20881408</v>
+        <v>20917043.2</v>
       </c>
       <c r="R5" t="n">
-        <v>20881408</v>
+        <v>20917043.2</v>
       </c>
       <c r="S5" t="n">
-        <v>20881408</v>
+        <v>20922777.6</v>
       </c>
       <c r="T5" t="n">
-        <v>20881408</v>
+        <v>20922777.6</v>
       </c>
       <c r="U5" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V5" t="n">
         <v>72</v>
       </c>
       <c r="W5" t="n">
+        <v>72</v>
+      </c>
+      <c r="X5" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="n">
         <v>64</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -881,57 +915,63 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005014694</v>
+        <v>0.005528736</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002748632</v>
+        <v>0.003006732</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008398556999999999</v>
+        <v>0.009330379999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005671966</v>
+        <v>0.006217933</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007154953</v>
+        <v>0.008040416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006798136</v>
+        <v>0.007544672</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001900876</v>
+        <v>0.002113378</v>
       </c>
       <c r="N6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="O6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="P6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="Q6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="R6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="S6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="T6" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="U6" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V6" t="n">
         <v>72</v>
       </c>
       <c r="W6" t="n">
+        <v>72</v>
+      </c>
+      <c r="X6" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="n">
         <v>64</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -957,57 +997,63 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005216885</v>
+        <v>0.0054497</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002802527</v>
+        <v>0.002937746</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008578229</v>
+        <v>0.009062433</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005818212</v>
+        <v>0.006134653</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007523835</v>
+        <v>0.007849514</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006964087</v>
+        <v>0.007297575</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001936245</v>
+        <v>0.002027416</v>
       </c>
       <c r="N7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="O7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="P7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="Q7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="R7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="S7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="T7" t="n">
-        <v>20881408</v>
+        <v>20955136</v>
       </c>
       <c r="U7" t="n">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="V7" t="n">
         <v>72</v>
       </c>
       <c r="W7" t="n">
+        <v>72</v>
+      </c>
+      <c r="X7" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="n">
         <v>64</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -587,46 +587,46 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005221951</v>
+        <v>0.004856312</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002849579</v>
+        <v>0.002661204</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008777368000000001</v>
+        <v>0.008351409000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005923605</v>
+        <v>0.005638325</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>0.007272553</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00720886</v>
+        <v>0.006887507</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002020574</v>
+        <v>0.001901627</v>
       </c>
       <c r="N2" t="n">
-        <v>20236492.8</v>
+        <v>20234444.8</v>
       </c>
       <c r="O2" t="n">
-        <v>20236492.8</v>
+        <v>20234444.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20236492.8</v>
+        <v>20234444.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>20275609.6</v>
+        <v>20268646.4</v>
       </c>
       <c r="R2" t="n">
-        <v>20275609.6</v>
+        <v>20268646.4</v>
       </c>
       <c r="S2" t="n">
-        <v>20287488</v>
+        <v>20283187.2</v>
       </c>
       <c r="T2" t="n">
-        <v>20287488</v>
+        <v>20283187.2</v>
       </c>
       <c r="U2" t="n">
         <v>120</v>
@@ -669,46 +669,46 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005128241</v>
+        <v>0.005051231</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002784705</v>
+        <v>0.002715862</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008764516999999999</v>
+        <v>0.008468938000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005953491</v>
+        <v>0.005794179</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007823491</v>
+        <v>0.007435918</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007266366</v>
+        <v>0.006910193</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002030957</v>
+        <v>0.001905262</v>
       </c>
       <c r="N3" t="n">
-        <v>20534272</v>
+        <v>20471808</v>
       </c>
       <c r="O3" t="n">
-        <v>20534272</v>
+        <v>20471808</v>
       </c>
       <c r="P3" t="n">
-        <v>20534272</v>
+        <v>20471808</v>
       </c>
       <c r="Q3" t="n">
-        <v>20543488</v>
+        <v>20471808</v>
       </c>
       <c r="R3" t="n">
-        <v>20543488</v>
+        <v>20471808</v>
       </c>
       <c r="S3" t="n">
-        <v>20543488</v>
+        <v>20476723.2</v>
       </c>
       <c r="T3" t="n">
-        <v>20543488</v>
+        <v>20476723.2</v>
       </c>
       <c r="U3" t="n">
         <v>120</v>
@@ -751,46 +751,46 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005274165</v>
+        <v>0.004826677</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002855456</v>
+        <v>0.002656817</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008723652</v>
+        <v>0.008268869</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005946338</v>
+        <v>0.005652356</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00772351</v>
+        <v>0.007235301</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00727129</v>
+        <v>0.006761634</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002043557</v>
+        <v>0.001888514</v>
       </c>
       <c r="N4" t="n">
-        <v>20757094.4</v>
+        <v>20632780.8</v>
       </c>
       <c r="O4" t="n">
-        <v>20757094.4</v>
+        <v>20632780.8</v>
       </c>
       <c r="P4" t="n">
-        <v>20757094.4</v>
+        <v>20632780.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>20768358.4</v>
+        <v>20632780.8</v>
       </c>
       <c r="R4" t="n">
-        <v>20768563.2</v>
+        <v>20632780.8</v>
       </c>
       <c r="S4" t="n">
-        <v>20768563.2</v>
+        <v>20640358.4</v>
       </c>
       <c r="T4" t="n">
-        <v>20768563.2</v>
+        <v>20640358.4</v>
       </c>
       <c r="U4" t="n">
         <v>120</v>
@@ -833,46 +833,46 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005402541</v>
+        <v>0.005149829</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002944338</v>
+        <v>0.002800691</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009249281999999999</v>
+        <v>0.008737659</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006354642</v>
+        <v>0.005962884</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008073854</v>
+        <v>0.007481694</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007542479</v>
+        <v>0.007026839</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002049661</v>
+        <v>0.001945543</v>
       </c>
       <c r="N5" t="n">
-        <v>20917043.2</v>
+        <v>20788019.2</v>
       </c>
       <c r="O5" t="n">
-        <v>20917043.2</v>
+        <v>20788019.2</v>
       </c>
       <c r="P5" t="n">
-        <v>20917043.2</v>
+        <v>20788019.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>20917043.2</v>
+        <v>20788019.2</v>
       </c>
       <c r="R5" t="n">
-        <v>20917043.2</v>
+        <v>20788019.2</v>
       </c>
       <c r="S5" t="n">
-        <v>20922777.6</v>
+        <v>20795392</v>
       </c>
       <c r="T5" t="n">
-        <v>20922777.6</v>
+        <v>20795392</v>
       </c>
       <c r="U5" t="n">
         <v>120</v>
@@ -915,46 +915,46 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005528736</v>
+        <v>0.004720736</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003006732</v>
+        <v>0.002607262</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009330379999999999</v>
+        <v>0.008028232999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006217933</v>
+        <v>0.005451024</v>
       </c>
       <c r="K6" t="n">
-        <v>0.008040416</v>
+        <v>0.007082808</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007544672</v>
+        <v>0.006687236</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002113378</v>
+        <v>0.001802373</v>
       </c>
       <c r="N6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="O6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="P6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="Q6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="R6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="S6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="T6" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="U6" t="n">
         <v>120</v>
@@ -997,46 +997,46 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0054497</v>
+        <v>0.004590428</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002937746</v>
+        <v>0.002513933</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009062433</v>
+        <v>0.00784837</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006134653</v>
+        <v>0.00532825</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007849514</v>
+        <v>0.006887376</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007297575</v>
+        <v>-1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002027416</v>
+        <v>0.001769018</v>
       </c>
       <c r="N7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="O7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="P7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="Q7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="R7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="S7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="T7" t="n">
-        <v>20955136</v>
+        <v>20795392</v>
       </c>
       <c r="U7" t="n">
         <v>120</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -587,46 +587,46 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004856312</v>
+        <v>0.005127873</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002661204</v>
+        <v>0.002938584</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008351409000000001</v>
+        <v>0.008720688000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005638325</v>
+        <v>0.006071957</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007272553</v>
+        <v>0.007430823</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006887507</v>
+        <v>0.006895594</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001901627</v>
+        <v>0.001932057</v>
       </c>
       <c r="N2" t="n">
-        <v>20234444.8</v>
+        <v>20120576</v>
       </c>
       <c r="O2" t="n">
-        <v>20234444.8</v>
+        <v>20120780.8</v>
       </c>
       <c r="P2" t="n">
-        <v>20234444.8</v>
+        <v>20120780.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>20268646.4</v>
+        <v>20134502.4</v>
       </c>
       <c r="R2" t="n">
-        <v>20268646.4</v>
+        <v>20134502.4</v>
       </c>
       <c r="S2" t="n">
-        <v>20283187.2</v>
+        <v>20171776</v>
       </c>
       <c r="T2" t="n">
-        <v>20283187.2</v>
+        <v>20171776</v>
       </c>
       <c r="U2" t="n">
         <v>120</v>
@@ -669,46 +669,46 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005051231</v>
+        <v>0.005224391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002715862</v>
+        <v>0.002908356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008468938000000001</v>
+        <v>0.009287027999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005794179</v>
+        <v>0.006253367</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007435918</v>
+        <v>0.008086968999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006910193</v>
+        <v>0.007332483</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001905262</v>
+        <v>0.002120789</v>
       </c>
       <c r="N3" t="n">
-        <v>20471808</v>
+        <v>20417945.6</v>
       </c>
       <c r="O3" t="n">
-        <v>20471808</v>
+        <v>20417945.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20471808</v>
+        <v>20417945.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>20471808</v>
+        <v>20423475.2</v>
       </c>
       <c r="R3" t="n">
-        <v>20471808</v>
+        <v>20423475.2</v>
       </c>
       <c r="S3" t="n">
-        <v>20476723.2</v>
+        <v>20428185.6</v>
       </c>
       <c r="T3" t="n">
-        <v>20476723.2</v>
+        <v>20428185.6</v>
       </c>
       <c r="U3" t="n">
         <v>120</v>
@@ -751,46 +751,46 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004826677</v>
+        <v>0.005384234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002656817</v>
+        <v>0.002914433</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008268869</v>
+        <v>0.009096356</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005652356</v>
+        <v>0.006210881</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007235301</v>
+        <v>0.00829189</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006761634</v>
+        <v>0.007334133</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001888514</v>
+        <v>0.002166264</v>
       </c>
       <c r="N4" t="n">
-        <v>20632780.8</v>
+        <v>20581376</v>
       </c>
       <c r="O4" t="n">
-        <v>20632780.8</v>
+        <v>20581376</v>
       </c>
       <c r="P4" t="n">
-        <v>20632780.8</v>
+        <v>20581376</v>
       </c>
       <c r="Q4" t="n">
-        <v>20632780.8</v>
+        <v>20581376</v>
       </c>
       <c r="R4" t="n">
-        <v>20632780.8</v>
+        <v>20581376</v>
       </c>
       <c r="S4" t="n">
-        <v>20640358.4</v>
+        <v>20589363.2</v>
       </c>
       <c r="T4" t="n">
-        <v>20640358.4</v>
+        <v>20589363.2</v>
       </c>
       <c r="U4" t="n">
         <v>120</v>
@@ -833,46 +833,46 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005149829</v>
+        <v>0.005349216</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002800691</v>
+        <v>0.002977952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008737659</v>
+        <v>0.009142499</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005962884</v>
+        <v>0.006225453</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007481694</v>
+        <v>0.008292488000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007026839</v>
+        <v>0.008090329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001945543</v>
+        <v>0.002215152</v>
       </c>
       <c r="N5" t="n">
-        <v>20788019.2</v>
+        <v>20701184</v>
       </c>
       <c r="O5" t="n">
-        <v>20788019.2</v>
+        <v>20701184</v>
       </c>
       <c r="P5" t="n">
-        <v>20788019.2</v>
+        <v>20701184</v>
       </c>
       <c r="Q5" t="n">
-        <v>20788019.2</v>
+        <v>20701184</v>
       </c>
       <c r="R5" t="n">
-        <v>20788019.2</v>
+        <v>20701184</v>
       </c>
       <c r="S5" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="T5" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="U5" t="n">
         <v>120</v>
@@ -915,46 +915,46 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004720736</v>
+        <v>0.00536053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002607262</v>
+        <v>0.002958926</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008028232999999999</v>
+        <v>0.008876198</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005451024</v>
+        <v>0.006064699</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007082808</v>
+        <v>0.007764433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006687236</v>
+        <v>0.00722937</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001802373</v>
+        <v>0.001970133</v>
       </c>
       <c r="N6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="O6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="P6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="Q6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="R6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="S6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="T6" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="U6" t="n">
         <v>120</v>
@@ -997,46 +997,46 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004590428</v>
+        <v>0.005354327</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002513933</v>
+        <v>0.003062517</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00784837</v>
+        <v>0.009043525</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00532825</v>
+        <v>0.005921875</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006887376</v>
+        <v>0.007834166</v>
       </c>
       <c r="L7" t="n">
-        <v>-1</v>
+        <v>0.007341015</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001769018</v>
+        <v>0.002057874</v>
       </c>
       <c r="N7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="O7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="P7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="Q7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="R7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="S7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="T7" t="n">
-        <v>20795392</v>
+        <v>20701184</v>
       </c>
       <c r="U7" t="n">
         <v>120</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,30 +536,50 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>elementOfZR (B)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG1 (B)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG2 (B)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfGT (B)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>mpk (B)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>msk (B)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>EK (B)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>DK (B)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>TK' (B)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -587,63 +607,75 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005127873</v>
+        <v>0.005313413</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002938584</v>
+        <v>0.002912842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008720688000000001</v>
+        <v>0.008996641</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006071957</v>
+        <v>0.006056507</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007430823</v>
+        <v>0.00792114</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006895594</v>
+        <v>0.007386519</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001932057</v>
+        <v>0.002037545</v>
       </c>
       <c r="N2" t="n">
-        <v>20120576</v>
+        <v>20078592</v>
       </c>
       <c r="O2" t="n">
-        <v>20120780.8</v>
+        <v>20078592</v>
       </c>
       <c r="P2" t="n">
-        <v>20120780.8</v>
+        <v>20078592</v>
       </c>
       <c r="Q2" t="n">
-        <v>20134502.4</v>
+        <v>20130201.6</v>
       </c>
       <c r="R2" t="n">
-        <v>20134502.4</v>
+        <v>20130201.6</v>
       </c>
       <c r="S2" t="n">
-        <v>20171776</v>
+        <v>20130201.6</v>
       </c>
       <c r="T2" t="n">
-        <v>20171776</v>
+        <v>20130201.6</v>
       </c>
       <c r="U2" t="n">
+        <v>72</v>
+      </c>
+      <c r="V2" t="n">
+        <v>72</v>
+      </c>
+      <c r="W2" t="n">
+        <v>72</v>
+      </c>
+      <c r="X2" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="n">
         <v>120</v>
       </c>
-      <c r="V2" t="n">
-        <v>72</v>
-      </c>
-      <c r="W2" t="n">
-        <v>72</v>
-      </c>
-      <c r="X2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="n">
         <v>64</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AD2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -669,63 +701,75 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005224391</v>
+        <v>0.005291694</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002908356</v>
+        <v>0.002879097</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009287027999999999</v>
+        <v>0.008846458</v>
       </c>
       <c r="J3" t="n">
-        <v>0.006253367</v>
+        <v>0.00614363</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008086968999999999</v>
+        <v>0.007842003</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007332483</v>
+        <v>0.007574569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002120789</v>
+        <v>0.002096881</v>
       </c>
       <c r="N3" t="n">
-        <v>20417945.6</v>
+        <v>20430438.4</v>
       </c>
       <c r="O3" t="n">
-        <v>20417945.6</v>
+        <v>20430438.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20417945.6</v>
+        <v>20430438.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>20423475.2</v>
+        <v>20441702.4</v>
       </c>
       <c r="R3" t="n">
-        <v>20423475.2</v>
+        <v>20441702.4</v>
       </c>
       <c r="S3" t="n">
-        <v>20428185.6</v>
+        <v>20446412.8</v>
       </c>
       <c r="T3" t="n">
-        <v>20428185.6</v>
+        <v>20446412.8</v>
       </c>
       <c r="U3" t="n">
+        <v>72</v>
+      </c>
+      <c r="V3" t="n">
+        <v>72</v>
+      </c>
+      <c r="W3" t="n">
+        <v>72</v>
+      </c>
+      <c r="X3" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="n">
         <v>120</v>
       </c>
-      <c r="V3" t="n">
-        <v>72</v>
-      </c>
-      <c r="W3" t="n">
-        <v>72</v>
-      </c>
-      <c r="X3" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="n">
         <v>64</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
         <v>88</v>
       </c>
     </row>
@@ -751,63 +795,75 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005384234</v>
+        <v>0.005424169</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002914433</v>
+        <v>0.002939997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009096356</v>
+        <v>0.009225761000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006210881</v>
+        <v>0.006245778</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00829189</v>
+        <v>0.008180061000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007334133</v>
+        <v>0.007679956</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002166264</v>
+        <v>0.002115841</v>
       </c>
       <c r="N4" t="n">
-        <v>20581376</v>
+        <v>20586496</v>
       </c>
       <c r="O4" t="n">
-        <v>20581376</v>
+        <v>20586496</v>
       </c>
       <c r="P4" t="n">
-        <v>20581376</v>
+        <v>20586496</v>
       </c>
       <c r="Q4" t="n">
-        <v>20581376</v>
+        <v>20586496</v>
       </c>
       <c r="R4" t="n">
-        <v>20581376</v>
+        <v>20586496</v>
       </c>
       <c r="S4" t="n">
-        <v>20589363.2</v>
+        <v>20586496</v>
       </c>
       <c r="T4" t="n">
-        <v>20589363.2</v>
+        <v>20586496</v>
       </c>
       <c r="U4" t="n">
+        <v>72</v>
+      </c>
+      <c r="V4" t="n">
+        <v>72</v>
+      </c>
+      <c r="W4" t="n">
+        <v>72</v>
+      </c>
+      <c r="X4" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="n">
         <v>120</v>
       </c>
-      <c r="V4" t="n">
-        <v>72</v>
-      </c>
-      <c r="W4" t="n">
-        <v>72</v>
-      </c>
-      <c r="X4" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC4" t="n">
         <v>64</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AD4" t="n">
         <v>88</v>
       </c>
     </row>
@@ -833,63 +889,75 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005349216</v>
+        <v>0.004995317</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002977952</v>
+        <v>0.002724698</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009142499</v>
+        <v>0.008524861999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006225453</v>
+        <v>0.005734976</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008292488000000001</v>
+        <v>0.007600942</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008090329</v>
+        <v>0.006966152</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002215152</v>
+        <v>0.001920564</v>
       </c>
       <c r="N5" t="n">
-        <v>20701184</v>
+        <v>20751155.2</v>
       </c>
       <c r="O5" t="n">
-        <v>20701184</v>
+        <v>20751155.2</v>
       </c>
       <c r="P5" t="n">
-        <v>20701184</v>
+        <v>20764467.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>20701184</v>
+        <v>20764467.2</v>
       </c>
       <c r="R5" t="n">
-        <v>20701184</v>
+        <v>20764467.2</v>
       </c>
       <c r="S5" t="n">
-        <v>20701184</v>
+        <v>20764876.8</v>
       </c>
       <c r="T5" t="n">
-        <v>20701184</v>
+        <v>20764876.8</v>
       </c>
       <c r="U5" t="n">
+        <v>72</v>
+      </c>
+      <c r="V5" t="n">
+        <v>72</v>
+      </c>
+      <c r="W5" t="n">
+        <v>72</v>
+      </c>
+      <c r="X5" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="n">
         <v>120</v>
       </c>
-      <c r="V5" t="n">
-        <v>72</v>
-      </c>
-      <c r="W5" t="n">
-        <v>72</v>
-      </c>
-      <c r="X5" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="n">
         <v>64</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -915,63 +983,75 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00536053</v>
+        <v>0.004892816</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002958926</v>
+        <v>0.002650486</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008876198</v>
+        <v>0.008391454</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006064699</v>
+        <v>0.005768035</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007764433</v>
+        <v>0.007336051</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00722937</v>
+        <v>0.006984518</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001970133</v>
+        <v>0.001928255</v>
       </c>
       <c r="N6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="O6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="P6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="Q6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="R6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="S6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="T6" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="U6" t="n">
+        <v>72</v>
+      </c>
+      <c r="V6" t="n">
+        <v>72</v>
+      </c>
+      <c r="W6" t="n">
+        <v>72</v>
+      </c>
+      <c r="X6" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="n">
         <v>120</v>
       </c>
-      <c r="V6" t="n">
-        <v>72</v>
-      </c>
-      <c r="W6" t="n">
-        <v>72</v>
-      </c>
-      <c r="X6" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="n">
         <v>64</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AD6" t="n">
         <v>88</v>
       </c>
     </row>
@@ -997,63 +1077,75 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005354327</v>
+        <v>0.005202207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003062517</v>
+        <v>0.002875468</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009043525</v>
+        <v>0.009000851000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005921875</v>
+        <v>0.006087822</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007834166</v>
+        <v>0.008027318</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007341015</v>
+        <v>0.007276863</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002057874</v>
+        <v>0.002003093</v>
       </c>
       <c r="N7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="O7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="P7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="Q7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="R7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="S7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="T7" t="n">
-        <v>20701184</v>
+        <v>20860928</v>
       </c>
       <c r="U7" t="n">
+        <v>72</v>
+      </c>
+      <c r="V7" t="n">
+        <v>72</v>
+      </c>
+      <c r="W7" t="n">
+        <v>72</v>
+      </c>
+      <c r="X7" t="n">
+        <v>72</v>
+      </c>
+      <c r="Y7" t="n">
         <v>120</v>
       </c>
-      <c r="V7" t="n">
-        <v>72</v>
-      </c>
-      <c r="W7" t="n">
-        <v>72</v>
-      </c>
-      <c r="X7" t="n">
-        <v>72</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="n">
         <v>64</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
         <v>88</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -607,76 +607,76 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005313413</v>
+        <v>0.004766563</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002912842</v>
+        <v>0.002626551</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008996641</v>
+        <v>0.008137800000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006056507</v>
+        <v>0.005532444</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00792114</v>
+        <v>0.007285464</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007386519</v>
+        <v>0.006685277</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002037545</v>
+        <v>0.001856563</v>
       </c>
       <c r="N2" t="n">
-        <v>20078592</v>
+        <v>20331929.6</v>
       </c>
       <c r="O2" t="n">
-        <v>20078592</v>
+        <v>20331929.6</v>
       </c>
       <c r="P2" t="n">
-        <v>20078592</v>
+        <v>20331929.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>20130201.6</v>
+        <v>20338688</v>
       </c>
       <c r="R2" t="n">
-        <v>20130201.6</v>
+        <v>20338688</v>
       </c>
       <c r="S2" t="n">
-        <v>20130201.6</v>
+        <v>20383129.6</v>
       </c>
       <c r="T2" t="n">
-        <v>20130201.6</v>
+        <v>20383129.6</v>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="X2" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Y2" t="n">
+        <v>688</v>
+      </c>
+      <c r="Z2" t="n">
         <v>120</v>
       </c>
-      <c r="Z2" t="n">
-        <v>72</v>
-      </c>
       <c r="AA2" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AC2" t="n">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="AD2" t="n">
-        <v>88</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
@@ -701,76 +701,76 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005291694</v>
+        <v>0.004893955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002879097</v>
+        <v>0.002645348</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008846458</v>
+        <v>0.008350886</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00614363</v>
+        <v>0.005803787</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007842003</v>
+        <v>0.007378822</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007574569</v>
+        <v>0.006889289</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002096881</v>
+        <v>0.001929543</v>
       </c>
       <c r="N3" t="n">
-        <v>20430438.4</v>
+        <v>20642816</v>
       </c>
       <c r="O3" t="n">
-        <v>20430438.4</v>
+        <v>20642816</v>
       </c>
       <c r="P3" t="n">
-        <v>20430438.4</v>
+        <v>20642816</v>
       </c>
       <c r="Q3" t="n">
-        <v>20441702.4</v>
+        <v>20642816</v>
       </c>
       <c r="R3" t="n">
-        <v>20441702.4</v>
+        <v>20642816</v>
       </c>
       <c r="S3" t="n">
-        <v>20446412.8</v>
+        <v>20659200</v>
       </c>
       <c r="T3" t="n">
-        <v>20446412.8</v>
+        <v>20659200</v>
       </c>
       <c r="U3" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V3" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W3" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Y3" t="n">
+        <v>704</v>
+      </c>
+      <c r="Z3" t="n">
         <v>120</v>
       </c>
-      <c r="Z3" t="n">
-        <v>72</v>
-      </c>
       <c r="AA3" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AC3" t="n">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="AD3" t="n">
-        <v>88</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4">
@@ -795,76 +795,76 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005424169</v>
+        <v>0.004829761</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002939997</v>
+        <v>0.002558905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009225761000000001</v>
+        <v>0.007985664</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006245778</v>
+        <v>0.005366988</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008180061000000001</v>
+        <v>0.006906739</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007679956</v>
+        <v>0.00648116</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002115841</v>
+        <v>0.001780131</v>
       </c>
       <c r="N4" t="n">
-        <v>20586496</v>
+        <v>20844134.4</v>
       </c>
       <c r="O4" t="n">
-        <v>20586496</v>
+        <v>20844134.4</v>
       </c>
       <c r="P4" t="n">
-        <v>20586496</v>
+        <v>20844134.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20586496</v>
+        <v>20844134.4</v>
       </c>
       <c r="R4" t="n">
-        <v>20586496</v>
+        <v>20844339.2</v>
       </c>
       <c r="S4" t="n">
-        <v>20586496</v>
+        <v>20851712</v>
       </c>
       <c r="T4" t="n">
-        <v>20586496</v>
+        <v>20851712</v>
       </c>
       <c r="U4" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V4" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W4" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="X4" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Y4" t="n">
+        <v>736</v>
+      </c>
+      <c r="Z4" t="n">
         <v>120</v>
       </c>
-      <c r="Z4" t="n">
-        <v>72</v>
-      </c>
       <c r="AA4" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AC4" t="n">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="AD4" t="n">
-        <v>88</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5">
@@ -889,76 +889,76 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004995317</v>
+        <v>0.004683722</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002724698</v>
+        <v>0.002576941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008524861999999999</v>
+        <v>0.007914314</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005734976</v>
+        <v>0.005358463</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007600942</v>
+        <v>0.006888355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006966152</v>
+        <v>0.006511698</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001920564</v>
+        <v>0.001816986</v>
       </c>
       <c r="N5" t="n">
-        <v>20751155.2</v>
+        <v>20942848</v>
       </c>
       <c r="O5" t="n">
-        <v>20751155.2</v>
+        <v>20942848</v>
       </c>
       <c r="P5" t="n">
-        <v>20764467.2</v>
+        <v>20942848</v>
       </c>
       <c r="Q5" t="n">
-        <v>20764467.2</v>
+        <v>20942848</v>
       </c>
       <c r="R5" t="n">
-        <v>20764467.2</v>
+        <v>20942848</v>
       </c>
       <c r="S5" t="n">
-        <v>20764876.8</v>
+        <v>20942848</v>
       </c>
       <c r="T5" t="n">
-        <v>20764876.8</v>
+        <v>20942848</v>
       </c>
       <c r="U5" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V5" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="X5" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Y5" t="n">
+        <v>752</v>
+      </c>
+      <c r="Z5" t="n">
         <v>120</v>
       </c>
-      <c r="Z5" t="n">
-        <v>72</v>
-      </c>
       <c r="AA5" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AC5" t="n">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="AD5" t="n">
-        <v>88</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6">
@@ -983,76 +983,76 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004892816</v>
+        <v>0.004753848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002650486</v>
+        <v>0.00261866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008391454</v>
+        <v>0.008237924000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005768035</v>
+        <v>0.005518889</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007336051</v>
+        <v>0.007051983</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006984518</v>
+        <v>0.006687757</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001928255</v>
+        <v>0.001857841</v>
       </c>
       <c r="N6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="O6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="P6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="Q6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="R6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="S6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="T6" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="U6" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V6" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W6" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="X6" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Y6" t="n">
+        <v>816</v>
+      </c>
+      <c r="Z6" t="n">
         <v>120</v>
       </c>
-      <c r="Z6" t="n">
-        <v>72</v>
-      </c>
       <c r="AA6" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AB6" t="n">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AC6" t="n">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="AD6" t="n">
-        <v>88</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7">
@@ -1077,76 +1077,76 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005202207</v>
+        <v>0.004957067</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002875468</v>
+        <v>0.002749316</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009000851000000001</v>
+        <v>0.008673758</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006087822</v>
+        <v>0.0058627</v>
       </c>
       <c r="K7" t="n">
-        <v>0.008027318</v>
+        <v>0.007709735</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007276863</v>
+        <v>0.007065461</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002003093</v>
+        <v>0.001925167</v>
       </c>
       <c r="N7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="O7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="P7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="Q7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="R7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="S7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="T7" t="n">
-        <v>20860928</v>
+        <v>20942848</v>
       </c>
       <c r="U7" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="V7" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="W7" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="X7" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="Y7" t="n">
+        <v>880</v>
+      </c>
+      <c r="Z7" t="n">
         <v>120</v>
       </c>
-      <c r="Z7" t="n">
-        <v>72</v>
-      </c>
       <c r="AA7" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AB7" t="n">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AC7" t="n">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="AD7" t="n">
-        <v>88</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,45 +541,40 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1 (B)</t>
+          <t>elementOfG1G2 (B)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG2 (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>elementOfGT (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>mpk (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>msk (B)</t>
+          <t>EK (B)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>EK (B)</t>
+          <t>DK (B)</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>DK (B)</t>
+          <t>TK' (B)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>TK' (B)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -607,46 +602,46 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004766563</v>
+        <v>0.00503045</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002626551</v>
+        <v>0.00268184</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008137800000000001</v>
+        <v>0.008408551</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005532444</v>
+        <v>0.005838616</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007285464</v>
+        <v>0.007361538</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006685277</v>
+        <v>0.006976424</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001856563</v>
+        <v>0.002012954</v>
       </c>
       <c r="N2" t="n">
-        <v>20331929.6</v>
+        <v>20325376</v>
       </c>
       <c r="O2" t="n">
-        <v>20331929.6</v>
+        <v>20325376</v>
       </c>
       <c r="P2" t="n">
-        <v>20331929.6</v>
+        <v>20325376</v>
       </c>
       <c r="Q2" t="n">
-        <v>20338688</v>
+        <v>20363264</v>
       </c>
       <c r="R2" t="n">
-        <v>20338688</v>
+        <v>20363264</v>
       </c>
       <c r="S2" t="n">
-        <v>20383129.6</v>
+        <v>20377600</v>
       </c>
       <c r="T2" t="n">
-        <v>20383129.6</v>
+        <v>20377600</v>
       </c>
       <c r="U2" t="n">
         <v>30</v>
@@ -655,27 +650,24 @@
         <v>90</v>
       </c>
       <c r="W2" t="n">
+        <v>174</v>
+      </c>
+      <c r="X2" t="n">
+        <v>688</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z2" t="n">
         <v>90</v>
       </c>
-      <c r="X2" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>688</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>120</v>
-      </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AB2" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AC2" t="n">
-        <v>270</v>
-      </c>
-      <c r="AD2" t="n">
         <v>550</v>
       </c>
     </row>
@@ -701,46 +693,46 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004893955</v>
+        <v>0.004960417</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002645348</v>
+        <v>0.002758022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008350886</v>
+        <v>0.008549199</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005803787</v>
+        <v>0.005916294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007378822</v>
+        <v>0.007827832</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006889289</v>
+        <v>0.007286875</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001929543</v>
+        <v>0.00194752</v>
       </c>
       <c r="N3" t="n">
-        <v>20642816</v>
+        <v>20587724.8</v>
       </c>
       <c r="O3" t="n">
-        <v>20642816</v>
+        <v>20587724.8</v>
       </c>
       <c r="P3" t="n">
-        <v>20642816</v>
+        <v>20587724.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>20642816</v>
+        <v>20600627.2</v>
       </c>
       <c r="R3" t="n">
-        <v>20642816</v>
+        <v>20601036.8</v>
       </c>
       <c r="S3" t="n">
-        <v>20659200</v>
+        <v>20603494.4</v>
       </c>
       <c r="T3" t="n">
-        <v>20659200</v>
+        <v>20603494.4</v>
       </c>
       <c r="U3" t="n">
         <v>30</v>
@@ -749,27 +741,24 @@
         <v>90</v>
       </c>
       <c r="W3" t="n">
+        <v>174</v>
+      </c>
+      <c r="X3" t="n">
+        <v>704</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z3" t="n">
         <v>90</v>
       </c>
-      <c r="X3" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>704</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>120</v>
-      </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AB3" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AC3" t="n">
-        <v>270</v>
-      </c>
-      <c r="AD3" t="n">
         <v>554</v>
       </c>
     </row>
@@ -795,46 +784,46 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004829761</v>
+        <v>0.005134394</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002558905</v>
+        <v>0.002738385</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007985664</v>
+        <v>0.008642641</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005366988</v>
+        <v>0.006088917</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006906739</v>
+        <v>0.007676481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00648116</v>
+        <v>0.007644724</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001780131</v>
+        <v>0.001965553</v>
       </c>
       <c r="N4" t="n">
-        <v>20844134.4</v>
+        <v>20841267.2</v>
       </c>
       <c r="O4" t="n">
-        <v>20844134.4</v>
+        <v>20841267.2</v>
       </c>
       <c r="P4" t="n">
-        <v>20844134.4</v>
+        <v>20841267.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>20844134.4</v>
+        <v>20848025.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20844339.2</v>
+        <v>20848025.6</v>
       </c>
       <c r="S4" t="n">
-        <v>20851712</v>
+        <v>20848025.6</v>
       </c>
       <c r="T4" t="n">
-        <v>20851712</v>
+        <v>20848025.6</v>
       </c>
       <c r="U4" t="n">
         <v>30</v>
@@ -843,27 +832,24 @@
         <v>90</v>
       </c>
       <c r="W4" t="n">
+        <v>174</v>
+      </c>
+      <c r="X4" t="n">
+        <v>736</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z4" t="n">
         <v>90</v>
       </c>
-      <c r="X4" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>736</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>120</v>
-      </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AB4" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AC4" t="n">
-        <v>270</v>
-      </c>
-      <c r="AD4" t="n">
         <v>562</v>
       </c>
     </row>
@@ -889,46 +875,46 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004683722</v>
+        <v>0.005491438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002576941</v>
+        <v>0.002823114</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007914314</v>
+        <v>0.008906516999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005358463</v>
+        <v>0.005881803</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006888355</v>
+        <v>0.007557422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006511698</v>
+        <v>0.007122061</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001816986</v>
+        <v>0.001927882</v>
       </c>
       <c r="N5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="O5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="P5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="Q5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="R5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="S5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="T5" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="U5" t="n">
         <v>30</v>
@@ -937,27 +923,24 @@
         <v>90</v>
       </c>
       <c r="W5" t="n">
+        <v>174</v>
+      </c>
+      <c r="X5" t="n">
+        <v>752</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z5" t="n">
         <v>90</v>
       </c>
-      <c r="X5" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>752</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>120</v>
-      </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AB5" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AC5" t="n">
-        <v>270</v>
-      </c>
-      <c r="AD5" t="n">
         <v>566</v>
       </c>
     </row>
@@ -983,46 +966,46 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004753848</v>
+        <v>0.004974529</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00261866</v>
+        <v>0.002744585</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008237924000000001</v>
+        <v>0.008548297</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005518889</v>
+        <v>0.00587711</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007051983</v>
+        <v>0.007540344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006687757</v>
+        <v>0.007117183</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001857841</v>
+        <v>0.001888969</v>
       </c>
       <c r="N6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="O6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="P6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="Q6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="R6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="S6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="T6" t="n">
-        <v>20942848</v>
+        <v>20938752</v>
       </c>
       <c r="U6" t="n">
         <v>30</v>
@@ -1031,27 +1014,24 @@
         <v>90</v>
       </c>
       <c r="W6" t="n">
+        <v>174</v>
+      </c>
+      <c r="X6" t="n">
+        <v>816</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="n">
         <v>90</v>
       </c>
-      <c r="X6" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>816</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>120</v>
-      </c>
       <c r="AA6" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AB6" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
-        <v>270</v>
-      </c>
-      <c r="AD6" t="n">
         <v>582</v>
       </c>
     </row>
@@ -1077,46 +1057,46 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004957067</v>
+        <v>0.005079795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002749316</v>
+        <v>0.002834321</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008673758</v>
+        <v>0.009624969000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0058627</v>
+        <v>0.006012271</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007709735</v>
+        <v>0.007497536</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007065461</v>
+        <v>0.007064129</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001925167</v>
+        <v>0.002014204</v>
       </c>
       <c r="N7" t="n">
-        <v>20942848</v>
+        <v>20961280</v>
       </c>
       <c r="O7" t="n">
-        <v>20942848</v>
+        <v>20961280</v>
       </c>
       <c r="P7" t="n">
-        <v>20942848</v>
+        <v>20961280</v>
       </c>
       <c r="Q7" t="n">
-        <v>20942848</v>
+        <v>20961280</v>
       </c>
       <c r="R7" t="n">
-        <v>20942848</v>
+        <v>20961280</v>
       </c>
       <c r="S7" t="n">
-        <v>20942848</v>
+        <v>20965785.6</v>
       </c>
       <c r="T7" t="n">
-        <v>20942848</v>
+        <v>20965785.6</v>
       </c>
       <c r="U7" t="n">
         <v>30</v>
@@ -1125,27 +1105,24 @@
         <v>90</v>
       </c>
       <c r="W7" t="n">
+        <v>174</v>
+      </c>
+      <c r="X7" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z7" t="n">
         <v>90</v>
       </c>
-      <c r="X7" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>880</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>120</v>
-      </c>
       <c r="AA7" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="AB7" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="AC7" t="n">
-        <v>270</v>
-      </c>
-      <c r="AD7" t="n">
         <v>598</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,80 +501,45 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Setup (B)</t>
+          <t>elementOfZR (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>EKGen (B)</t>
+          <t>elementOfG1G2 (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>DKGen (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>TKGen (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Enc (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Dec (B)</t>
+          <t>EK (B)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TVerify (B)</t>
+          <t>DK (B)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>elementOfZR (B)</t>
+          <t>TK' (B)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfG1G2 (B)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfGT (B)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>mpk (B)</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>msk (B)</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>EK (B)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>DK (B)</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>TK' (B)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -602,72 +567,51 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00503045</v>
+        <v>0.004877689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00268184</v>
+        <v>0.002579888</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008408551</v>
+        <v>0.008104475</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005838616</v>
+        <v>0.005676141</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007361538</v>
+        <v>0.007250138</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006976424</v>
+        <v>0.006720163</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002012954</v>
+        <v>0.001889823</v>
       </c>
       <c r="N2" t="n">
-        <v>20325376</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>20325376</v>
+        <v>90</v>
       </c>
       <c r="P2" t="n">
-        <v>20325376</v>
+        <v>174</v>
       </c>
       <c r="Q2" t="n">
-        <v>20363264</v>
+        <v>688</v>
       </c>
       <c r="R2" t="n">
-        <v>20363264</v>
+        <v>120</v>
       </c>
       <c r="S2" t="n">
-        <v>20377600</v>
+        <v>90</v>
       </c>
       <c r="T2" t="n">
-        <v>20377600</v>
+        <v>360</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="V2" t="n">
-        <v>90</v>
-      </c>
-      <c r="W2" t="n">
-        <v>174</v>
-      </c>
-      <c r="X2" t="n">
-        <v>688</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>270</v>
-      </c>
-      <c r="AC2" t="n">
         <v>550</v>
       </c>
     </row>
@@ -693,72 +637,51 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004960417</v>
+        <v>0.004885388</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002758022</v>
+        <v>0.002643486</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008549199</v>
+        <v>0.008343293</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005916294</v>
+        <v>0.00564376</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007827832</v>
+        <v>0.007233649</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007286875</v>
+        <v>0.006709389</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00194752</v>
+        <v>0.001897514</v>
       </c>
       <c r="N3" t="n">
-        <v>20587724.8</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
-        <v>20587724.8</v>
+        <v>90</v>
       </c>
       <c r="P3" t="n">
-        <v>20587724.8</v>
+        <v>174</v>
       </c>
       <c r="Q3" t="n">
-        <v>20600627.2</v>
+        <v>704</v>
       </c>
       <c r="R3" t="n">
-        <v>20601036.8</v>
+        <v>120</v>
       </c>
       <c r="S3" t="n">
-        <v>20603494.4</v>
+        <v>90</v>
       </c>
       <c r="T3" t="n">
-        <v>20603494.4</v>
+        <v>360</v>
       </c>
       <c r="U3" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="V3" t="n">
-        <v>90</v>
-      </c>
-      <c r="W3" t="n">
-        <v>174</v>
-      </c>
-      <c r="X3" t="n">
-        <v>704</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>270</v>
-      </c>
-      <c r="AC3" t="n">
         <v>554</v>
       </c>
     </row>
@@ -784,72 +707,51 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005134394</v>
+        <v>0.004957515</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002738385</v>
+        <v>0.002719337</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008642641</v>
+        <v>0.008586671000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006088917</v>
+        <v>0.005799862</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007676481</v>
+        <v>0.007408363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007644724</v>
+        <v>0.006858301</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001965553</v>
+        <v>0.001880601</v>
       </c>
       <c r="N4" t="n">
-        <v>20841267.2</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>20841267.2</v>
+        <v>90</v>
       </c>
       <c r="P4" t="n">
-        <v>20841267.2</v>
+        <v>174</v>
       </c>
       <c r="Q4" t="n">
-        <v>20848025.6</v>
+        <v>736</v>
       </c>
       <c r="R4" t="n">
-        <v>20848025.6</v>
+        <v>120</v>
       </c>
       <c r="S4" t="n">
-        <v>20848025.6</v>
+        <v>90</v>
       </c>
       <c r="T4" t="n">
-        <v>20848025.6</v>
+        <v>360</v>
       </c>
       <c r="U4" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
-        <v>90</v>
-      </c>
-      <c r="W4" t="n">
-        <v>174</v>
-      </c>
-      <c r="X4" t="n">
-        <v>736</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>270</v>
-      </c>
-      <c r="AC4" t="n">
         <v>562</v>
       </c>
     </row>
@@ -875,72 +777,51 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005491438</v>
+        <v>0.004750416</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002823114</v>
+        <v>0.002595751</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008906516999999999</v>
+        <v>0.008191245</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005881803</v>
+        <v>0.005641065</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007557422</v>
+        <v>0.007196699</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007122061</v>
+        <v>0.006695089</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001927882</v>
+        <v>0.001888444</v>
       </c>
       <c r="N5" t="n">
-        <v>20938752</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>20938752</v>
+        <v>90</v>
       </c>
       <c r="P5" t="n">
-        <v>20938752</v>
+        <v>174</v>
       </c>
       <c r="Q5" t="n">
-        <v>20938752</v>
+        <v>752</v>
       </c>
       <c r="R5" t="n">
-        <v>20938752</v>
+        <v>120</v>
       </c>
       <c r="S5" t="n">
-        <v>20938752</v>
+        <v>90</v>
       </c>
       <c r="T5" t="n">
-        <v>20938752</v>
+        <v>360</v>
       </c>
       <c r="U5" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="V5" t="n">
-        <v>90</v>
-      </c>
-      <c r="W5" t="n">
-        <v>174</v>
-      </c>
-      <c r="X5" t="n">
-        <v>752</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>270</v>
-      </c>
-      <c r="AC5" t="n">
         <v>566</v>
       </c>
     </row>
@@ -966,72 +847,51 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004974529</v>
+        <v>0.004816293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002744585</v>
+        <v>0.002635325</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008548297</v>
+        <v>0.008259634</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00587711</v>
+        <v>0.005630003</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007540344</v>
+        <v>0.007344776</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007117183</v>
+        <v>0.006803769</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001888969</v>
+        <v>0.00189217</v>
       </c>
       <c r="N6" t="n">
-        <v>20938752</v>
+        <v>30</v>
       </c>
       <c r="O6" t="n">
-        <v>20938752</v>
+        <v>90</v>
       </c>
       <c r="P6" t="n">
-        <v>20938752</v>
+        <v>174</v>
       </c>
       <c r="Q6" t="n">
-        <v>20938752</v>
+        <v>816</v>
       </c>
       <c r="R6" t="n">
-        <v>20938752</v>
+        <v>120</v>
       </c>
       <c r="S6" t="n">
-        <v>20938752</v>
+        <v>90</v>
       </c>
       <c r="T6" t="n">
-        <v>20938752</v>
+        <v>360</v>
       </c>
       <c r="U6" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="V6" t="n">
-        <v>90</v>
-      </c>
-      <c r="W6" t="n">
-        <v>174</v>
-      </c>
-      <c r="X6" t="n">
-        <v>816</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>270</v>
-      </c>
-      <c r="AC6" t="n">
         <v>582</v>
       </c>
     </row>
@@ -1057,72 +917,51 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005079795</v>
+        <v>0.004790979</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002834321</v>
+        <v>0.002573637</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009624969000000001</v>
+        <v>0.008015929999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006012271</v>
+        <v>0.005455595</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007497536</v>
+        <v>0.007046373</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007064129</v>
+        <v>0.006516607</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002014204</v>
+        <v>0.001858724</v>
       </c>
       <c r="N7" t="n">
-        <v>20961280</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>20961280</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
-        <v>20961280</v>
+        <v>174</v>
       </c>
       <c r="Q7" t="n">
-        <v>20961280</v>
+        <v>880</v>
       </c>
       <c r="R7" t="n">
-        <v>20961280</v>
+        <v>120</v>
       </c>
       <c r="S7" t="n">
-        <v>20965785.6</v>
+        <v>90</v>
       </c>
       <c r="T7" t="n">
-        <v>20965785.6</v>
+        <v>360</v>
       </c>
       <c r="U7" t="n">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="V7" t="n">
-        <v>90</v>
-      </c>
-      <c r="W7" t="n">
-        <v>174</v>
-      </c>
-      <c r="X7" t="n">
-        <v>880</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>360</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>270</v>
-      </c>
-      <c r="AC7" t="n">
         <v>598</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -567,25 +567,25 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004877689</v>
+        <v>0.001544147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002579888</v>
+        <v>0.002319569</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008104475</v>
+        <v>0.005200945</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005676141</v>
+        <v>0.002759231</v>
       </c>
       <c r="K2" t="n">
-        <v>0.007250138</v>
+        <v>0.003599978</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006720163</v>
+        <v>0.003647427</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001889823</v>
+        <v>5.4e-06</v>
       </c>
       <c r="N2" t="n">
         <v>30</v>
@@ -637,25 +637,25 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004885388</v>
+        <v>0.001492415</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002643486</v>
+        <v>0.002253426</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008343293</v>
+        <v>0.005076657</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00564376</v>
+        <v>0.002795173</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007233649</v>
+        <v>0.003605167</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006709389</v>
+        <v>0.003641906</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001897514</v>
+        <v>4.636e-06</v>
       </c>
       <c r="N3" t="n">
         <v>30</v>
@@ -707,25 +707,25 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004957515</v>
+        <v>0.001495807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002719337</v>
+        <v>0.002239015</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008586671000000001</v>
+        <v>0.004973072</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005799862</v>
+        <v>0.002743852</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007408363</v>
+        <v>0.003593058</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006858301</v>
+        <v>0.003596364</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001880601</v>
+        <v>4.696e-06</v>
       </c>
       <c r="N4" t="n">
         <v>30</v>
@@ -777,25 +777,25 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004750416</v>
+        <v>0.001519817</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002595751</v>
+        <v>0.002341377</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008191245</v>
+        <v>0.005212046</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005641065</v>
+        <v>0.002828889</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007196699</v>
+        <v>0.003659337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006695089</v>
+        <v>0.003774117</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001888444</v>
+        <v>5.758e-06</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -847,25 +847,25 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004816293</v>
+        <v>0.001538354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002635325</v>
+        <v>0.002219781</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008259634</v>
+        <v>0.004984605</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005630003</v>
+        <v>0.002742655</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007344776</v>
+        <v>0.003553678</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006803769</v>
+        <v>0.003587842</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00189217</v>
+        <v>4.611e-06</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -917,25 +917,25 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004790979</v>
+        <v>0.001481113</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002573637</v>
+        <v>0.002226484</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008015929999999999</v>
+        <v>0.005004118</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005455595</v>
+        <v>0.002778796</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007046373</v>
+        <v>0.003628523</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006516607</v>
+        <v>0.00363663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001858724</v>
+        <v>4.633e-06</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -567,25 +567,25 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001544147</v>
+        <v>0.001466474</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002319569</v>
+        <v>0.002205484</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005200945</v>
+        <v>0.00495423</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002759231</v>
+        <v>0.002749568</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003599978</v>
+        <v>0.003655137</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003647427</v>
+        <v>0.003588459</v>
       </c>
       <c r="M2" t="n">
-        <v>5.4e-06</v>
+        <v>4.781e-06</v>
       </c>
       <c r="N2" t="n">
         <v>30</v>
@@ -637,25 +637,25 @@
         <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001492415</v>
+        <v>0.001467096</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002253426</v>
+        <v>0.002220137</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005076657</v>
+        <v>0.00505623</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002795173</v>
+        <v>0.002787832</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003605167</v>
+        <v>0.003598096</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003641906</v>
+        <v>0.003580727</v>
       </c>
       <c r="M3" t="n">
-        <v>4.636e-06</v>
+        <v>4.646e-06</v>
       </c>
       <c r="N3" t="n">
         <v>30</v>
@@ -707,25 +707,25 @@
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001495807</v>
+        <v>0.001548167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002239015</v>
+        <v>0.002327678</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004973072</v>
+        <v>0.005165369</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002743852</v>
+        <v>0.002850048</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003593058</v>
+        <v>0.003704878</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003596364</v>
+        <v>0.00377323</v>
       </c>
       <c r="M4" t="n">
-        <v>4.696e-06</v>
+        <v>5.413e-06</v>
       </c>
       <c r="N4" t="n">
         <v>30</v>
@@ -777,25 +777,25 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001519817</v>
+        <v>0.001473488</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002341377</v>
+        <v>0.002224416</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005212046</v>
+        <v>0.004944029</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002828889</v>
+        <v>0.002732417</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003659337</v>
+        <v>0.003532212</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003774117</v>
+        <v>0.00356888</v>
       </c>
       <c r="M5" t="n">
-        <v>5.758e-06</v>
+        <v>4.689e-06</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -847,25 +847,25 @@
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001538354</v>
+        <v>0.001526806</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002219781</v>
+        <v>0.00224052</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004984605</v>
+        <v>0.004927311</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002742655</v>
+        <v>0.002752656</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003553678</v>
+        <v>0.003652972</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003587842</v>
+        <v>0.003578438</v>
       </c>
       <c r="M6" t="n">
-        <v>4.611e-06</v>
+        <v>4.785e-06</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -917,25 +917,25 @@
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001481113</v>
+        <v>0.001514317</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002226484</v>
+        <v>0.002368902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005004118</v>
+        <v>0.005103061</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002778796</v>
+        <v>0.002787496</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003628523</v>
+        <v>0.003634515</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00363663</v>
+        <v>0.00365865</v>
       </c>
       <c r="M7" t="n">
-        <v>4.633e-06</v>
+        <v>4.747e-06</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBMETR.xlsx
+++ b/SchemeIBMETR/SchemeIBMETR.xlsx
@@ -555,37 +555,37 @@
         <v>128</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001466474</v>
+        <v>0.001507225</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002205484</v>
+        <v>0.002232926</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00495423</v>
+        <v>0.00498445</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002749568</v>
+        <v>0.002782111</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003655137</v>
+        <v>0.003569294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003588459</v>
+        <v>0.003643216</v>
       </c>
       <c r="M2" t="n">
-        <v>4.781e-06</v>
+        <v>5.073e-06</v>
       </c>
       <c r="N2" t="n">
         <v>30</v>
@@ -625,37 +625,37 @@
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001467096</v>
+        <v>0.001373917</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002220137</v>
+        <v>0.002055347</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00505623</v>
+        <v>0.004611073</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002787832</v>
+        <v>0.002541363</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003598096</v>
+        <v>0.003296345</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003580727</v>
+        <v>0.00333151</v>
       </c>
       <c r="M3" t="n">
-        <v>4.646e-06</v>
+        <v>4.593e-06</v>
       </c>
       <c r="N3" t="n">
         <v>30</v>
@@ -695,37 +695,37 @@
         <v>224</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001548167</v>
+        <v>0.001389954</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002327678</v>
+        <v>0.00210694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005165369</v>
+        <v>0.004644975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002850048</v>
+        <v>0.002564932</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003704878</v>
+        <v>0.003344271</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00377323</v>
+        <v>0.003378925</v>
       </c>
       <c r="M4" t="n">
-        <v>5.413e-06</v>
+        <v>4.654e-06</v>
       </c>
       <c r="N4" t="n">
         <v>30</v>
@@ -765,37 +765,37 @@
         <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001473488</v>
+        <v>0.001388192</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002224416</v>
+        <v>0.002074825</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004944029</v>
+        <v>0.004681413</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002732417</v>
+        <v>0.002579211</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003532212</v>
+        <v>0.003359493</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00356888</v>
+        <v>0.003382875</v>
       </c>
       <c r="M5" t="n">
-        <v>4.689e-06</v>
+        <v>4.768e-06</v>
       </c>
       <c r="N5" t="n">
         <v>30</v>
@@ -835,37 +835,37 @@
         <v>384</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001526806</v>
+        <v>0.001393589</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00224052</v>
+        <v>0.002096097</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004927311</v>
+        <v>0.004663074</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002752656</v>
+        <v>0.002601713</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003652972</v>
+        <v>0.003331108</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003578438</v>
+        <v>0.003373251</v>
       </c>
       <c r="M6" t="n">
-        <v>4.785e-06</v>
+        <v>4.872e-06</v>
       </c>
       <c r="N6" t="n">
         <v>30</v>
@@ -905,37 +905,37 @@
         <v>512</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001514317</v>
+        <v>0.001375799</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002368902</v>
+        <v>0.002066956</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005103061</v>
+        <v>0.004676408</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002787496</v>
+        <v>0.002565805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003634515</v>
+        <v>0.003307309</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00365865</v>
+        <v>0.003337812</v>
       </c>
       <c r="M7" t="n">
-        <v>4.747e-06</v>
+        <v>4.754e-06</v>
       </c>
       <c r="N7" t="n">
         <v>30</v>
